--- a/results/MHD/embedding_size_results.xlsx
+++ b/results/MHD/embedding_size_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,55 +450,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7713678384179161</v>
+        <v>0.7567443914700004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7568855474001921</v>
+        <v>0.7640161962901412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7526495212990717</v>
+        <v>0.7631540695935686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.757767255781037</v>
+        <v>0.7632292609483124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7623818138099974</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7648247405476889</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7705523064722632</v>
+        <v>0.7701095314558285</v>
       </c>
     </row>
   </sheetData>
